--- a/codegen/__out__/deno/gen/tenant/tenant.xlsx
+++ b/codegen/__out__/deno/gen/tenant/tenant.xlsx
@@ -66,7 +66,7 @@
     <t xml:space="preserve">&lt;%~model.max_usr_num%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=model._is_enabled%&gt;</t>
+    <t xml:space="preserve">&lt;%=model.is_enabled%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model._menu_ids%&gt;</t>

--- a/codegen/__out__/deno/gen/tenant/tenant.xlsx
+++ b/codegen/__out__/deno/gen/tenant/tenant.xlsx
@@ -30,28 +30,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">域名绑定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">到期日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最大用户数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">启用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">菜单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">排序</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备注</t>
+    <t xml:space="preserve">&lt;%=await _data_.n("名称")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("域名绑定")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("到期日")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("最大用户数")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("启用")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("菜单")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("排序")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("备注")%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model.lbl%&gt;</t>
